--- a/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,79</t>
+          <t>3,53; 11,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 18,15</t>
+          <t>7,78; 17,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,85</t>
+          <t>6,33; 13,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,18</t>
+          <t>5,54; 12,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 18,25</t>
+          <t>10,94; 17,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 13,62</t>
+          <t>8,94; 13,81</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,77</t>
+          <t>10,52; 16,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 19,5</t>
+          <t>13,87; 19,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 17,18</t>
+          <t>13,07; 17,12</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,75</t>
+          <t>9,66; 15,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,81</t>
+          <t>20,67; 26,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,24</t>
+          <t>15,76; 20,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 19,66</t>
+          <t>13,82; 19,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,29; 33,16</t>
+          <t>27,13; 32,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 25,52</t>
+          <t>21,34; 25,49</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 23,41</t>
+          <t>18,56; 23,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,33; 30,24</t>
+          <t>17,89; 30,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,04; 26,64</t>
+          <t>19,07; 26,49</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,66; 15,38</t>
+          <t>12,85; 15,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,95; 23,38</t>
+          <t>19,83; 23,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,14</t>
+          <t>17,1; 19,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 11,97</t>
+          <t>3,18; 11,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 17,93</t>
+          <t>7,73; 18,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 13,11</t>
+          <t>6,38; 12,85</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 12,63</t>
+          <t>5,43; 12,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,81</t>
+          <t>11,08; 18,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,81</t>
+          <t>8,96; 13,62</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 16,9</t>
+          <t>10,54; 16,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,87; 19,22</t>
+          <t>14,26; 19,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,12</t>
+          <t>13,2; 17,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,97</t>
+          <t>9,6; 15,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,67; 26,71</t>
+          <t>20,58; 26,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 20,63</t>
+          <t>15,68; 20,24</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,93</t>
+          <t>14,11; 19,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,13; 32,99</t>
+          <t>27,29; 33,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,34; 25,49</t>
+          <t>21,45; 25,52</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,56; 23,73</t>
+          <t>18,47; 23,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,89; 30,45</t>
+          <t>17,33; 30,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 26,49</t>
+          <t>19,04; 26,64</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,85; 15,43</t>
+          <t>12,66; 15,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,83; 23,35</t>
+          <t>19,95; 23,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,1; 19,26</t>
+          <t>17,02; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,79</t>
+          <t>3,17; 11,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 18,15</t>
+          <t>7,79; 18,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,85</t>
+          <t>6,28; 12,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,18</t>
+          <t>5,42; 12,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 18,25</t>
+          <t>8,07; 16,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 13,62</t>
+          <t>7,88; 13,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,0%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,77</t>
+          <t>10,42; 16,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 19,5</t>
+          <t>14,29; 19,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 17,18</t>
+          <t>13,05; 17,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>15,39%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,75</t>
+          <t>3,77; 14,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,81</t>
+          <t>18,75; 25,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,24</t>
+          <t>9,06; 18,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 19,66</t>
+          <t>13,79; 19,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,29; 33,16</t>
+          <t>26,92; 32,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 25,52</t>
+          <t>21,04; 25,03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>16,68%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 23,41</t>
+          <t>12,94; 18,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,33; 30,24</t>
+          <t>6,47; 26,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,04; 26,64</t>
+          <t>7,73; 21,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,66; 15,38</t>
+          <t>21,99; 30,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,95; 23,38</t>
+          <t>28,67; 34,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,14</t>
+          <t>27,16; 31,93</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 14,33</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17,08; 22,48</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 18,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 11,61</t>
+          <t>3,06; 12,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 18,56</t>
+          <t>7,48; 19,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 12,69</t>
+          <t>6,06; 12,51</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,34</t>
+          <t>5,27; 12,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,53</t>
+          <t>8,02; 16,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,13</t>
+          <t>7,52; 13,19</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 16,58</t>
+          <t>10,54; 16,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,29; 19,49</t>
+          <t>14,17; 19,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,05; 17,04</t>
+          <t>12,82; 16,91</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 14,59</t>
+          <t>4,34; 14,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 25,55</t>
+          <t>18,56; 25,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 18,69</t>
+          <t>9,24; 18,97</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,79; 19,34</t>
+          <t>13,65; 19,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,92; 32,69</t>
+          <t>26,88; 32,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,04; 25,03</t>
+          <t>20,82; 25,05</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,94</t>
+          <t>13,14; 18,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 26,61</t>
+          <t>6,99; 26,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 21,7</t>
+          <t>9,28; 21,8</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,99; 30,0</t>
+          <t>22,0; 30,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,67; 34,93</t>
+          <t>29,1; 35,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,16; 31,93</t>
+          <t>26,99; 32,2</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,33</t>
+          <t>10,08; 14,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,08; 22,48</t>
+          <t>16,39; 22,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,03</t>
+          <t>14,63; 18,19</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente cansado cuando despierta por la mañana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25953</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38510</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>64463</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12235; 48900</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23425; 59671</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43199; 89219</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>34752</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>63229</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>97981</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22315; 51220</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>41035; 85113</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70331; 123297</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>71144</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>90391</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>161536</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56324; 90210</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76885; 104232</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>138046; 182121</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>87488</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>158837</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>246325</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38565; 129928</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>132267; 179334</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>147915; 303511</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>91621</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>162587</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>254208</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>76489; 109777</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>146624; 178825</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>230239; 277029</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>58679</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>104186</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>162864</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>48386; 68960</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42521; 163047</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>90636; 212877</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>73170</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>135215</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>208385</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>62218; 85855</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>123593; 149736</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>190974; 227817</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>442807</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>752955</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1195762</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>348477; 498536</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>599641; 820833</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1040709; 1293965</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>